--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\SoftUni\Level 2\04. JavaScript-SPA-AngularJS\JavaScript AngularJS Project\SelloBuyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +692,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,11 +756,11 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -888,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -923,8 +926,8 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5">
-        <v>5</v>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
@@ -972,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -984,7 +987,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
@@ -1269,7 +1272,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
